--- a/target/test-classes/Configuration/TestData.xlsx
+++ b/target/test-classes/Configuration/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Title</t>
   </si>
@@ -42,15 +42,9 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Custom MIR Rule2</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
-    <t>IGS</t>
-  </si>
-  <si>
     <t>Lirary Name</t>
   </si>
   <si>
@@ -69,36 +63,25 @@
     <t>2013 MRA Content Type</t>
   </si>
   <si>
-    <t xml:space="preserve">2013 Azure child
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2013 Azure Content Type
-</t>
-  </si>
-  <si>
     <t>2013 Currency</t>
   </si>
   <si>
     <t>2013 MRA Choice</t>
   </si>
   <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Force &amp; Hide</t>
-  </si>
-  <si>
-    <t>Update</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>2013 MLT</t>
-  </si>
-  <si>
     <t>CS</t>
+  </si>
+  <si>
+    <t>Rupee</t>
+  </si>
+  <si>
+    <t>2013 MRA MLT</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Custom MIR Rule0</t>
   </si>
 </sst>
 </file>
@@ -487,7 +470,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,13 +479,13 @@
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -528,16 +511,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>5</v>
@@ -545,39 +528,21 @@
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="4">
-        <v>5</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -596,7 +561,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
@@ -606,35 +571,33 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
         <v>18</v>
       </c>
@@ -644,13 +607,14 @@
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
       <c r="E12" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17" s="4"/>
